--- a/biology/Biologie cellulaire et moléculaire/Électrophorèse_sur_gel/Électrophorèse_sur_gel.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Électrophorèse_sur_gel/Électrophorèse_sur_gel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lectrophor%C3%A8se_sur_gel</t>
+          <t>Électrophorèse_sur_gel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'électrophorèse sur gel est une variante de l'électrophorèse de zones. 
 Très utilisée en biochimie ou en biologie moléculaire, cette technique d'électrophorèse permet de séparer des molécules en fonction de leur charge, de leur taille (appelée poids moléculaire) ou les deux à la fois en les faisant migrer à travers un gel par application d'un champ électrique. Le gel est rempli d'une phase aqueuse saline, le plus souvent tamponnée dont les ions jouent le rôle d'électrolyte et conduisent le courant. Les molécules analysées migrent dans le gel sous les effets conjugués de la force exercée par le champ électrique et des forces de friction exercées par la matrice du gel. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lectrophor%C3%A8se_sur_gel</t>
+          <t>Électrophorèse_sur_gel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Typologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les principaux gels utilisés sont le gel d'agarose et le gel de polyacrylamide (PAGE).
 Selon le nombre de niveaux de séparation, l'électrophorèse sur gel peut être unidimensionnelle ou bidimensionnelle.
 L'électrophorèse peut se faire en conditions natives ou en conditions dénaturantes. Dans ce second cas, on parle d'électrophorèse sur gel en gradient dénaturant. Les conditions natives respectent la structure de la molécule alors que les conditions dénaturantes dénaturent les molécules grâce à l'ajout d'un agent dénaturant dans le tampon. 
 En jouant sur les paramètres de l'électrophorèse sur gel, il est possible de travailler :
 à pH constant ou dans un gradient de pH (focalisation isoélectrique)
-dans un gradient de champ électrique (isotachophorèse (en)) ou par application alternative de deux champs électriques (électrophorèse sur gel en champ pulsé (en))[1].</t>
+dans un gradient de champ électrique (isotachophorèse (en)) ou par application alternative de deux champs électriques (électrophorèse sur gel en champ pulsé (en)).</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lectrophor%C3%A8se_sur_gel</t>
+          <t>Électrophorèse_sur_gel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette technique peut être utilisée pour des buts analytiques ou préparatifs. Dans ce dernier cas, elle est surtout utilisée pour séparer des acides aminés, des protéines ou des acides nucléiques (ADN ou ARN).
 </t>
